--- a/public/uploads/formato.xlsx
+++ b/public/uploads/formato.xlsx
@@ -32,30 +32,6 @@
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Usuario de Windows:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Correo Eléctronico que se logea al sistema</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -149,6 +125,54 @@
           </rPr>
           <t xml:space="preserve">
 Debe ser el mismo nombre que aparece en el Sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Usuario de Windows:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>El registro de Descartará si se encuentra en el Sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario de Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+El nombre del correo debe estar en el mantenedor de correos, ya que se incorporará automaticamente</t>
         </r>
       </text>
     </comment>
@@ -157,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>CONDICION</t>
   </si>
@@ -223,6 +247,9 @@
   </si>
   <si>
     <t>Dpto</t>
+  </si>
+  <si>
+    <t>Correo Tipo</t>
   </si>
 </sst>
 </file>
@@ -233,7 +260,7 @@
     <numFmt numFmtId="164" formatCode="[$$-340A]#,##0"/>
     <numFmt numFmtId="165" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +310,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -649,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +720,7 @@
     <col min="23" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -747,8 +787,11 @@
       <c r="V1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L9" s="15"/>
     </row>
   </sheetData>

--- a/public/uploads/formato.xlsx
+++ b/public/uploads/formato.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\baquedano\Software\baquedano\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="import" sheetId="23" r:id="rId1"/>
+    <sheet name="Mayo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">import!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mayo!$A$1:$W$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,230 +26,76 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Usuario de Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Usuario de Windows:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-El formato de la celda debe estar como tipo fecha</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Usuario de Windows:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-El formato del texto debe ser General o Texto</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Usuario de Windows:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Los valores deben ser peso chileno y no valor contable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Usuario de Windows:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Debe ser el mismo nombre que aparece en el Sistema</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Usuario de Windows:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>El registro de Descartará si se encuentra en el Sistema</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Usuario de Windows:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-El nombre del correo debe estar en el mantenedor de correos, ya que se incorporará automaticamente</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
+    <t>Codigo Publicacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINK UBICACIÓN (WEB) </t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA ENVIO INFO A CLIENTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">portal </t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>nombre propietario</t>
+  </si>
+  <si>
     <t>CONDICION</t>
   </si>
   <si>
-    <t>TELEFONO</t>
+    <t>GASTOS COMUNES</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Pisc</t>
+  </si>
+  <si>
+    <t>Bode</t>
+  </si>
+  <si>
+    <t>Esta</t>
+  </si>
+  <si>
+    <t>Baño</t>
+  </si>
+  <si>
+    <t>Dorm</t>
+  </si>
+  <si>
+    <t>Comuna</t>
+  </si>
+  <si>
+    <t>Dpto.</t>
+  </si>
+  <si>
+    <t>Nro.</t>
   </si>
   <si>
     <t>Direccion</t>
   </si>
   <si>
-    <t>Baño</t>
-  </si>
-  <si>
-    <t>GASTOS COMUNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA ENVIO INFO A CLIENTE </t>
-  </si>
-  <si>
-    <t>Codigo Publicacion</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>nombre propietario</t>
-  </si>
-  <si>
-    <t>correo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINK UBICACIÓN (WEB) </t>
+    <t>Fecha de publicación</t>
   </si>
   <si>
     <t xml:space="preserve">CAPTADOR </t>
   </si>
   <si>
-    <t xml:space="preserve">portal </t>
-  </si>
-  <si>
-    <t>Dorm</t>
-  </si>
-  <si>
-    <t>Comuna</t>
-  </si>
-  <si>
-    <t>Esta</t>
-  </si>
-  <si>
-    <t>Bode</t>
-  </si>
-  <si>
-    <t>Pisc</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Fecha de publicación</t>
-  </si>
-  <si>
-    <t>Nro</t>
-  </si>
-  <si>
-    <t>Dpto</t>
-  </si>
-  <si>
-    <t>Correo Tipo</t>
+    <t>Tipo Correo</t>
   </si>
 </sst>
 </file>
@@ -257,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$$-340A]#,##0"/>
-    <numFmt numFmtId="165" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="[$$-340A]#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,13 +123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0463C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -291,37 +130,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0463C1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -363,54 +175,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2"/>
-    <cellStyle name="Hyperlink 2" xfId="1"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,9 +279,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -507,9 +314,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -688,115 +495,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" style="8" customWidth="1"/>
-    <col min="9" max="11" width="5.7109375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="32.85546875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" style="10" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="11" customWidth="1"/>
-    <col min="21" max="21" width="27.85546875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" style="11" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="5.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="32.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" style="4" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="27.85546875" style="3" customWidth="1"/>
+    <col min="22" max="23" width="16.140625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="U1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>